--- a/fase 2/Evidencias Proyecto/Evidencia de documentacion/COSTOS.xlsx
+++ b/fase 2/Evidencias Proyecto/Evidencia de documentacion/COSTOS.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Crist\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Crist\Desktop\Capstone\Gestion_Integral_de_Faena_Capstone24_DUOC_VM_prueba\fase 2\Evidencias Proyecto\Evidencia de documentacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FF799AC-EAC3-4846-87DF-3B81CF6EF35D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E309E8A7-A818-4A36-8462-5FBAC5037262}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="61">
   <si>
     <t>REMUNERACIONES, HONORARIOS E INCENTIVOS</t>
   </si>
@@ -183,9 +183,6 @@
     <t>GASTOS GENERALES E IMPREVISTOS</t>
   </si>
   <si>
-    <t>Elaboracion del plan de riesgo (gantt)</t>
-  </si>
-  <si>
     <t>Fondo reserva</t>
   </si>
   <si>
@@ -216,16 +213,16 @@
     <t>HONORARIOS, INCENTIVOS, REMUNERACIONES</t>
   </si>
   <si>
-    <t>Utilidad</t>
+    <t>Servicio de dominio par aplicación</t>
   </si>
   <si>
-    <t>Precio</t>
+    <t>Computadores</t>
   </si>
   <si>
-    <t>Despido de integrante</t>
+    <t>Computadores portatiles por cada integrante</t>
   </si>
   <si>
-    <t>Servicio de dominio par aplicación</t>
+    <t>COSTO REAL DEL PROYECTO</t>
   </si>
 </sst>
 </file>
@@ -235,7 +232,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$$]#,##0"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="15">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -314,6 +311,13 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -473,7 +477,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -586,6 +590,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -801,10 +806,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z993"/>
+  <dimension ref="A1:Z994"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
@@ -971,17 +976,17 @@
       <c r="C7" s="13"/>
       <c r="D7" s="13"/>
       <c r="E7" s="14">
-        <v>1260000</v>
+        <v>700000</v>
       </c>
       <c r="F7" s="15">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="G7" s="16">
         <v>6</v>
       </c>
       <c r="H7" s="12">
         <f>+$E$7*$F$7*G7</f>
-        <v>6804000</v>
+        <v>4200000</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="12.75" customHeight="1">
@@ -992,39 +997,57 @@
       <c r="C8" s="13"/>
       <c r="D8" s="13"/>
       <c r="E8" s="14">
-        <v>1260000</v>
+        <v>700000</v>
       </c>
       <c r="F8" s="15">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="G8" s="16">
         <v>6</v>
       </c>
       <c r="H8" s="12">
-        <f>+E8*F8*G8</f>
-        <v>6804000</v>
+        <f>+$E$7*$F$7*G8</f>
+        <v>4200000</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="14">
+        <v>700000</v>
+      </c>
+      <c r="F9" s="15">
+        <v>1</v>
+      </c>
+      <c r="G9" s="16">
+        <v>6</v>
+      </c>
+      <c r="H9" s="12">
+        <f>+E9*F9*G9</f>
+        <v>4200000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A10" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="17"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="18">
-        <f>SUM(H6:H8)</f>
-        <v>13608000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A10" s="19"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="18">
+        <f>SUM(H6:H9)</f>
+        <v>12600000</v>
+      </c>
     </row>
     <row r="11" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A11" s="20"/>
+      <c r="A11" s="19"/>
     </row>
     <row r="12" spans="1:26" ht="12.75" customHeight="1">
       <c r="A12" s="20"/>
@@ -1039,19 +1062,21 @@
       <c r="A15" s="20"/>
     </row>
     <row r="16" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A16" s="1"/>
+      <c r="A16" s="20"/>
     </row>
     <row r="17" spans="1:1" ht="12.75" customHeight="1">
-      <c r="A17" s="21" t="s">
-        <v>4</v>
-      </c>
+      <c r="A17" s="1"/>
     </row>
     <row r="18" spans="1:1" ht="12.75" customHeight="1">
       <c r="A18" s="21" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:1" ht="12.75" customHeight="1"/>
+    <row r="19" spans="1:1" ht="12.75" customHeight="1">
+      <c r="A19" s="21" t="s">
+        <v>4</v>
+      </c>
+    </row>
     <row r="20" spans="1:1" ht="12.75" customHeight="1"/>
     <row r="21" spans="1:1" ht="12.75" customHeight="1"/>
     <row r="22" spans="1:1" ht="12.75" customHeight="1"/>
@@ -1251,7 +1276,7 @@
     <row r="216" ht="12.75" customHeight="1"/>
     <row r="217" ht="12.75" customHeight="1"/>
     <row r="218" ht="12.75" customHeight="1"/>
-    <row r="219" ht="15.75" customHeight="1"/>
+    <row r="219" ht="12.75" customHeight="1"/>
     <row r="220" ht="15.75" customHeight="1"/>
     <row r="221" ht="15.75" customHeight="1"/>
     <row r="222" ht="15.75" customHeight="1"/>
@@ -2026,6 +2051,7 @@
     <row r="991" ht="15.75" customHeight="1"/>
     <row r="992" ht="15.75" customHeight="1"/>
     <row r="993" ht="15.75" customHeight="1"/>
+    <row r="994" ht="15.75" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
@@ -2034,10 +2060,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:Z997"/>
+  <dimension ref="A1:Z996"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
@@ -2133,214 +2159,219 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:26" ht="30.75" customHeight="1">
-      <c r="A6" s="31" t="s">
-        <v>32</v>
+    <row r="6" spans="1:26" ht="33.75" customHeight="1">
+      <c r="A6" s="32" t="s">
+        <v>58</v>
       </c>
       <c r="B6" s="32" t="s">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="C6" s="33">
-        <v>100000</v>
+        <v>600000</v>
       </c>
       <c r="D6" s="31">
         <v>0</v>
       </c>
       <c r="E6" s="32">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F6" s="34">
-        <f t="shared" ref="F6:F7" si="0">(+C6+D6)*E6</f>
-        <v>600000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:26" ht="31.5" customHeight="1">
-      <c r="A7" s="31" t="s">
-        <v>34</v>
-      </c>
-      <c r="B7" s="32" t="s">
-        <v>61</v>
-      </c>
-      <c r="C7" s="33">
-        <v>30000</v>
-      </c>
-      <c r="D7" s="31">
-        <v>0</v>
-      </c>
-      <c r="E7" s="32">
-        <v>1</v>
-      </c>
-      <c r="F7" s="34">
-        <f t="shared" si="0"/>
-        <v>30000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:26" ht="33.75" customHeight="1">
+        <v>1800000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" ht="27.75" customHeight="1">
+      <c r="A7" s="32"/>
+      <c r="B7" s="32"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="34"/>
+    </row>
+    <row r="8" spans="1:26" ht="27.75" customHeight="1">
       <c r="A8" s="32"/>
       <c r="B8" s="32"/>
       <c r="C8" s="33"/>
-      <c r="D8" s="31"/>
+      <c r="D8" s="33"/>
       <c r="E8" s="32"/>
       <c r="F8" s="34"/>
     </row>
-    <row r="9" spans="1:26" ht="27.75" customHeight="1">
+    <row r="9" spans="1:26" ht="30" customHeight="1">
       <c r="A9" s="32"/>
       <c r="B9" s="32"/>
-      <c r="C9" s="35"/>
+      <c r="C9" s="33"/>
       <c r="D9" s="31"/>
       <c r="E9" s="32"/>
       <c r="F9" s="34"/>
     </row>
-    <row r="10" spans="1:26" ht="27.75" customHeight="1">
+    <row r="10" spans="1:26" ht="33.75" customHeight="1">
       <c r="A10" s="32"/>
       <c r="B10" s="32"/>
       <c r="C10" s="33"/>
-      <c r="D10" s="33"/>
+      <c r="D10" s="31"/>
       <c r="E10" s="32"/>
       <c r="F10" s="34"/>
     </row>
     <row r="11" spans="1:26" ht="30" customHeight="1">
       <c r="A11" s="32"/>
       <c r="B11" s="32"/>
-      <c r="C11" s="33"/>
+      <c r="C11" s="35"/>
       <c r="D11" s="31"/>
       <c r="E11" s="32"/>
       <c r="F11" s="34"/>
     </row>
-    <row r="12" spans="1:26" ht="33.75" customHeight="1">
-      <c r="A12" s="32"/>
-      <c r="B12" s="32"/>
-      <c r="C12" s="33"/>
-      <c r="D12" s="31"/>
-      <c r="E12" s="32"/>
-      <c r="F12" s="34"/>
-    </row>
-    <row r="13" spans="1:26" ht="30" customHeight="1">
-      <c r="A13" s="32"/>
-      <c r="B13" s="32"/>
-      <c r="C13" s="35"/>
-      <c r="D13" s="31"/>
-      <c r="E13" s="32"/>
-      <c r="F13" s="34"/>
+    <row r="12" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A12" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="17"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="36">
+        <f>SUM(F6:F10)</f>
+        <v>1800000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" ht="12.75" customHeight="1">
+      <c r="B13" s="26"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="2"/>
     </row>
     <row r="14" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="21"/>
+    </row>
+    <row r="15" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A15" s="21"/>
+    </row>
+    <row r="16" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A16" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="12.75" customHeight="1"/>
+    <row r="18" spans="1:6" ht="12.75" customHeight="1">
+      <c r="A18" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="F18" s="23" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="12.75" customHeight="1">
+      <c r="A19" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E19" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="F19" s="28" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="12.75" customHeight="1">
+      <c r="A20" s="29"/>
+      <c r="B20" s="29"/>
+      <c r="C20" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E20" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="F20" s="30" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="12.75" customHeight="1">
+      <c r="A21" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="C21" s="33">
+        <v>10000</v>
+      </c>
+      <c r="D21" s="31">
+        <v>0</v>
+      </c>
+      <c r="E21" s="32">
+        <v>1</v>
+      </c>
+      <c r="F21" s="34">
+        <f t="shared" ref="F21" si="0">(+C21+D21)*E21</f>
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="41.25" customHeight="1">
+      <c r="A22" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="B22" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22" s="33">
+        <v>100000</v>
+      </c>
+      <c r="D22" s="31">
+        <v>0</v>
+      </c>
+      <c r="E22" s="32">
+        <v>1</v>
+      </c>
+      <c r="F22" s="34">
+        <f t="shared" ref="F22" si="1">(+C22+D22)*E22</f>
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="12.75" customHeight="1">
+      <c r="A23" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="17"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="36">
-        <f>SUM(F6:F12)</f>
-        <v>630000</v>
-      </c>
-    </row>
-    <row r="15" spans="1:26" ht="12.75" customHeight="1">
-      <c r="B15" s="26"/>
-      <c r="C15" s="26"/>
-      <c r="D15" s="26"/>
-      <c r="E15" s="26"/>
-      <c r="F15" s="2"/>
-    </row>
-    <row r="16" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A16" s="21"/>
-    </row>
-    <row r="17" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A17" s="21"/>
-    </row>
-    <row r="18" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A18" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="12.75" customHeight="1"/>
-    <row r="20" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A20" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="B20" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="C20" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="D20" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="E20" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="F20" s="23" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A21" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="B21" s="28" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E21" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="F21" s="28" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A22" s="29"/>
-      <c r="B22" s="29"/>
-      <c r="C22" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="E22" s="30" t="s">
-        <v>31</v>
-      </c>
-      <c r="F22" s="30" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="41.25" customHeight="1">
-      <c r="A23" s="32"/>
-      <c r="B23" s="32"/>
-      <c r="C23" s="31"/>
-      <c r="D23" s="35"/>
-      <c r="E23" s="31"/>
-      <c r="F23" s="34"/>
-    </row>
-    <row r="24" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A24" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B24" s="17"/>
-      <c r="C24" s="17"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="36">
-        <f>SUM(F23)</f>
-        <v>0</v>
-      </c>
-    </row>
+      <c r="B23" s="17"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="36">
+        <f>SUM(F21 + F22)</f>
+        <v>110000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="12.75" customHeight="1"/>
     <row r="25" spans="1:6" ht="12.75" customHeight="1"/>
     <row r="26" spans="1:6" ht="12.75" customHeight="1"/>
     <row r="27" spans="1:6" ht="12.75" customHeight="1"/>
     <row r="28" spans="1:6" ht="12.75" customHeight="1"/>
-    <row r="29" spans="1:6" ht="12.75" customHeight="1"/>
-    <row r="30" spans="1:6" ht="15.75" customHeight="1"/>
-    <row r="31" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A31" s="1"/>
-    </row>
+    <row r="29" spans="1:6" ht="15.75" customHeight="1"/>
+    <row r="30" spans="1:6" ht="12.75" customHeight="1">
+      <c r="A30" s="1"/>
+    </row>
+    <row r="31" spans="1:6" ht="12.75" customHeight="1"/>
     <row r="32" spans="1:6" ht="12.75" customHeight="1"/>
     <row r="33" ht="12.75" customHeight="1"/>
     <row r="34" ht="12.75" customHeight="1"/>
@@ -2533,7 +2564,7 @@
     <row r="221" ht="12.75" customHeight="1"/>
     <row r="222" ht="12.75" customHeight="1"/>
     <row r="223" ht="12.75" customHeight="1"/>
-    <row r="224" ht="12.75" customHeight="1"/>
+    <row r="224" ht="15.75" customHeight="1"/>
     <row r="225" ht="15.75" customHeight="1"/>
     <row r="226" ht="15.75" customHeight="1"/>
     <row r="227" ht="15.75" customHeight="1"/>
@@ -3306,7 +3337,6 @@
     <row r="994" ht="15.75" customHeight="1"/>
     <row r="995" ht="15.75" customHeight="1"/>
     <row r="996" ht="15.75" customHeight="1"/>
-    <row r="997" ht="15.75" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
@@ -4615,8 +4645,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D1005"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="D55" sqref="D55"/>
+    <sheetView showGridLines="0" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="A47" sqref="A47:D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
@@ -4816,23 +4846,14 @@
       </c>
     </row>
     <row r="20" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A20" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="B20" s="13">
-        <v>200000</v>
-      </c>
-      <c r="C20" s="40">
-        <v>1</v>
-      </c>
-      <c r="D20" s="43">
-        <f t="shared" ref="D20:D21" si="1">+B20*C20</f>
-        <v>200000</v>
-      </c>
+      <c r="A20" s="16"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="40"/>
+      <c r="D20" s="43"/>
     </row>
     <row r="21" spans="1:4" ht="12.75" customHeight="1">
       <c r="A21" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B21" s="13">
         <v>100000</v>
@@ -4841,23 +4862,15 @@
         <v>1</v>
       </c>
       <c r="D21" s="43">
-        <f t="shared" si="1"/>
+        <f>+B21*C21</f>
         <v>100000</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A22" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="B22" s="13">
-        <v>850000</v>
-      </c>
-      <c r="C22" s="40">
-        <v>1</v>
-      </c>
-      <c r="D22" s="43">
-        <v>850000</v>
-      </c>
+      <c r="A22" s="16"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="40"/>
+      <c r="D22" s="43"/>
     </row>
     <row r="23" spans="1:4" ht="12.75" customHeight="1">
       <c r="A23" s="16"/>
@@ -4885,7 +4898,7 @@
       <c r="C26" s="11"/>
       <c r="D26" s="18">
         <f>SUM(D20:D25)</f>
-        <v>1150000</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="12.75" customHeight="1">
@@ -4920,7 +4933,7 @@
     </row>
     <row r="32" spans="1:4" ht="12.75" customHeight="1">
       <c r="A32" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B32" s="10"/>
       <c r="C32" s="10"/>
@@ -5037,7 +5050,7 @@
     </row>
     <row r="47" spans="1:4" ht="12.75" customHeight="1">
       <c r="A47" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="12.75" customHeight="1">
@@ -5085,21 +5098,21 @@
     </row>
     <row r="52" spans="1:4" ht="12.75" customHeight="1">
       <c r="A52" s="48" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B52" s="14">
-        <v>400000</v>
+        <v>100000</v>
       </c>
       <c r="C52" s="16">
         <v>1</v>
       </c>
       <c r="D52" s="49">
-        <v>400000</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="12.75" customHeight="1">
       <c r="A53" s="48" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B53" s="14">
         <v>1600000</v>
@@ -5113,7 +5126,7 @@
     </row>
     <row r="54" spans="1:4" ht="12.75" customHeight="1">
       <c r="A54" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B54" s="14">
         <v>2000000</v>
@@ -5127,7 +5140,7 @@
     </row>
     <row r="55" spans="1:4" ht="12.75" customHeight="1">
       <c r="A55" s="48" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B55" s="14">
         <v>1600000</v>
@@ -5141,7 +5154,7 @@
     </row>
     <row r="56" spans="1:4" ht="12.75" customHeight="1">
       <c r="A56" s="48" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B56" s="14">
         <v>1800000</v>
@@ -5161,7 +5174,7 @@
       <c r="C57" s="11"/>
       <c r="D57" s="18">
         <f>SUM(D52:D56)</f>
-        <v>7400000</v>
+        <v>7100000</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="12.75" customHeight="1"/>
@@ -6124,10 +6137,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="B1:AA997"/>
+  <dimension ref="B1:AA994"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
@@ -6144,7 +6157,7 @@
     <row r="2" spans="2:27" ht="12.75" customHeight="1"/>
     <row r="3" spans="2:27" ht="12.75" customHeight="1">
       <c r="B3" s="50" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="2:27" ht="12.75" customHeight="1">
@@ -6169,11 +6182,11 @@
     </row>
     <row r="7" spans="2:27" ht="12.75" customHeight="1">
       <c r="B7" s="43" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C7" s="53">
-        <f>REMUNERACIONES!H9</f>
-        <v>13608000</v>
+        <f>REMUNERACIONES!H10</f>
+        <v>12600000</v>
       </c>
       <c r="D7" s="26"/>
       <c r="E7" s="26"/>
@@ -6184,8 +6197,8 @@
         <v>20</v>
       </c>
       <c r="C8" s="53">
-        <f>'EQUIPOS E INFRAESTRUCTURA'!F14</f>
-        <v>630000</v>
+        <f>'EQUIPOS E INFRAESTRUCTURA'!F12</f>
+        <v>1800000</v>
       </c>
       <c r="D8" s="26"/>
       <c r="E8" s="26"/>
@@ -6197,7 +6210,7 @@
       </c>
       <c r="C9" s="53">
         <f>OTROS!D26</f>
-        <v>1150000</v>
+        <v>100000</v>
       </c>
       <c r="D9" s="26"/>
       <c r="E9" s="26"/>
@@ -6209,7 +6222,7 @@
       </c>
       <c r="C10" s="54">
         <f>SUM(C7:C9)</f>
-        <v>15388000</v>
+        <v>14500000</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -6237,119 +6250,82 @@
       <c r="AA10" s="1"/>
     </row>
     <row r="11" spans="2:27" ht="12.75" customHeight="1">
-      <c r="B11" s="18"/>
-      <c r="C11" s="54"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="1"/>
-      <c r="R11" s="1"/>
-      <c r="S11" s="1"/>
-      <c r="T11" s="1"/>
-      <c r="U11" s="1"/>
-      <c r="V11" s="1"/>
-      <c r="W11" s="1"/>
-      <c r="X11" s="1"/>
-      <c r="Y11" s="1"/>
-      <c r="Z11" s="1"/>
-      <c r="AA11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="55"/>
     </row>
     <row r="12" spans="2:27" ht="12.75" customHeight="1">
-      <c r="B12" s="43" t="s">
-        <v>58</v>
-      </c>
-      <c r="C12" s="53">
-        <f>OTROS!D57</f>
-        <v>7400000</v>
-      </c>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="1"/>
-      <c r="R12" s="1"/>
-      <c r="S12" s="1"/>
-      <c r="T12" s="1"/>
-      <c r="U12" s="1"/>
-      <c r="V12" s="1"/>
-      <c r="W12" s="1"/>
-      <c r="X12" s="1"/>
-      <c r="Y12" s="1"/>
-      <c r="Z12" s="1"/>
-      <c r="AA12" s="1"/>
+      <c r="B12" s="56" t="s">
+        <v>60</v>
+      </c>
+      <c r="C12" s="55"/>
     </row>
     <row r="13" spans="2:27" ht="12.75" customHeight="1">
-      <c r="B13" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="C13" s="54">
-        <f>SUM(C10+C12)</f>
-        <v>22788000</v>
+      <c r="B13" s="22"/>
+      <c r="C13" s="37" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="2:27" ht="12.75" customHeight="1">
-      <c r="B14" s="1"/>
-      <c r="C14" s="55"/>
+      <c r="B14" s="51" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="38" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="15" spans="2:27" ht="12.75" customHeight="1">
-      <c r="B15" s="1"/>
-      <c r="C15" s="55"/>
+      <c r="B15" s="29"/>
+      <c r="C15" s="52" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="16" spans="2:27" ht="12.75" customHeight="1">
-      <c r="B16" s="1"/>
-      <c r="C16" s="55"/>
+      <c r="B16" s="43" t="s">
+        <v>56</v>
+      </c>
+      <c r="C16" s="53">
+        <v>8400000</v>
+      </c>
     </row>
     <row r="17" spans="2:3" ht="12.75" customHeight="1">
-      <c r="B17" s="1"/>
-      <c r="C17" s="55"/>
+      <c r="B17" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="53">
+        <v>1800000</v>
+      </c>
     </row>
     <row r="18" spans="2:3" ht="12.75" customHeight="1">
-      <c r="B18" s="1"/>
-      <c r="C18" s="55"/>
+      <c r="B18" s="43" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18" s="53">
+        <v>100000</v>
+      </c>
     </row>
     <row r="19" spans="2:3" ht="12.75" customHeight="1">
-      <c r="B19" s="1"/>
-      <c r="C19" s="55"/>
+      <c r="B19" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="54">
+        <f>SUM(C16:C18)</f>
+        <v>10300000</v>
+      </c>
     </row>
     <row r="20" spans="2:3" ht="12.75" customHeight="1">
       <c r="B20" s="1"/>
       <c r="C20" s="55"/>
     </row>
-    <row r="21" spans="2:3" ht="12.75" customHeight="1"/>
+    <row r="21" spans="2:3" ht="12.75" customHeight="1">
+      <c r="B21" s="1"/>
+      <c r="C21" s="55"/>
+    </row>
     <row r="22" spans="2:3" ht="12.75" customHeight="1">
-      <c r="B22" s="1"/>
-      <c r="C22" s="55"/>
-    </row>
-    <row r="23" spans="2:3" ht="12.75" customHeight="1">
-      <c r="B23" s="1"/>
-      <c r="C23" s="55"/>
-    </row>
-    <row r="24" spans="2:3" ht="12.75" customHeight="1">
-      <c r="B24" s="1"/>
-      <c r="C24" s="55"/>
-    </row>
-    <row r="25" spans="2:3" ht="12.75" customHeight="1">
-      <c r="B25" s="19"/>
-    </row>
+      <c r="B22" s="19"/>
+    </row>
+    <row r="23" spans="2:3" ht="12.75" customHeight="1"/>
+    <row r="24" spans="2:3" ht="12.75" customHeight="1"/>
+    <row r="25" spans="2:3" ht="12.75" customHeight="1"/>
     <row r="26" spans="2:3" ht="12.75" customHeight="1"/>
     <row r="27" spans="2:3" ht="12.75" customHeight="1"/>
     <row r="28" spans="2:3" ht="12.75" customHeight="1"/>
@@ -6539,9 +6515,9 @@
     <row r="212" ht="12.75" customHeight="1"/>
     <row r="213" ht="12.75" customHeight="1"/>
     <row r="214" ht="12.75" customHeight="1"/>
-    <row r="215" ht="12.75" customHeight="1"/>
-    <row r="216" ht="12.75" customHeight="1"/>
-    <row r="217" ht="12.75" customHeight="1"/>
+    <row r="215" ht="15.75" customHeight="1"/>
+    <row r="216" ht="15.75" customHeight="1"/>
+    <row r="217" ht="15.75" customHeight="1"/>
     <row r="218" ht="15.75" customHeight="1"/>
     <row r="219" ht="15.75" customHeight="1"/>
     <row r="220" ht="15.75" customHeight="1"/>
@@ -7319,9 +7295,6 @@
     <row r="992" ht="15.75" customHeight="1"/>
     <row r="993" ht="15.75" customHeight="1"/>
     <row r="994" ht="15.75" customHeight="1"/>
-    <row r="995" ht="15.75" customHeight="1"/>
-    <row r="996" ht="15.75" customHeight="1"/>
-    <row r="997" ht="15.75" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
